--- a/大学物理实验/实验表格模板/7薄透镜焦距的测定.xlsx
+++ b/大学物理实验/实验表格模板/7薄透镜焦距的测定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\大学里的杂七杂八\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\heu-icicles\大学物理实验\实验表格模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3754D6-F577-43C4-B31E-E90EDF78648D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4D1182-DCA3-4E2F-AFCC-D2101FF418C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="2" activeTab="5" xr2:uid="{A0017A75-36DE-407D-A115-D7827B498809}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{A0017A75-36DE-407D-A115-D7827B498809}"/>
   </bookViews>
   <sheets>
     <sheet name="表 15-1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>物距</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表 15-3 物距相距法测凹透镜焦距数据记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>l2/cm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +133,14 @@
   </si>
   <si>
     <t>E/cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表 15-3 物距像距法测凹透镜焦距数据记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表 15-4 物距像距法法测凹透镜焦距数据记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -238,26 +242,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -268,6 +292,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,68 +634,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -681,78 +720,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -770,7 +809,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -779,78 +818,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -877,90 +916,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -987,66 +1026,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1059,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F45D0D-8CB7-43A5-9917-3792DC4DD0C7}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:H6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1071,96 +1110,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/大学物理实验/实验表格模板/7薄透镜焦距的测定.xlsx
+++ b/大学物理实验/实验表格模板/7薄透镜焦距的测定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\heu-icicles\大学物理实验\实验表格模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4D1182-DCA3-4E2F-AFCC-D2101FF418C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB72FBC-E9C0-43F6-9888-80452987962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{A0017A75-36DE-407D-A115-D7827B498809}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{A0017A75-36DE-407D-A115-D7827B498809}"/>
   </bookViews>
   <sheets>
     <sheet name="表 15-1" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -268,13 +268,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,14 +361,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0823C-C21B-41A3-99A0-CC6462E31A7B}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
@@ -1017,7 +1088,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="A1:H4"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1100,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F45D0D-8CB7-43A5-9917-3792DC4DD0C7}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1271,21 +1342,22 @@
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="A8:H8"/>
+    <mergeCell ref="B12:H13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/大学物理实验/实验表格模板/7薄透镜焦距的测定.xlsx
+++ b/大学物理实验/实验表格模板/7薄透镜焦距的测定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\heu-icicles\大学物理实验\实验表格模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB72FBC-E9C0-43F6-9888-80452987962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9FDF5B-39CE-42EC-BEA3-A208A33A86CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{A0017A75-36DE-407D-A115-D7827B498809}"/>
+    <workbookView xWindow="3290" yWindow="1740" windowWidth="19200" windowHeight="11170" activeTab="5" xr2:uid="{A0017A75-36DE-407D-A115-D7827B498809}"/>
   </bookViews>
   <sheets>
     <sheet name="表 15-1" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表 15-2 平面镜法测凹透镜焦距数据记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,14 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表 15-4 共轭法测凹透镜焦距数据记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表 15-5 平面镜法测凹透镜焦距数据记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D/cm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,11 +124,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表 15-3 物距像距法测凹透镜焦距数据记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表 15-4 物距像距法法测凹透镜焦距数据记录</t>
+    <t>表 15-2 平面镜法测凸透镜焦距数据记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表 15-3 物距像距法测凸透镜焦距数据记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表 15-4 共轭法测凸透镜焦距数据记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表 15-5 平面镜法测凸透镜焦距数据记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表 15-6 物距像距法法测凹透镜焦距数据记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0823C-C21B-41A3-99A0-CC6462E31A7B}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -792,7 +792,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -804,7 +804,7 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -825,12 +825,12 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -842,7 +842,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -854,7 +854,7 @@
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -880,7 +880,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -890,7 +890,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -902,7 +902,7 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -923,12 +923,12 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -940,7 +940,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -952,7 +952,7 @@
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -988,7 +988,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1021,12 +1021,12 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1131,12 +1131,12 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F45D0D-8CB7-43A5-9917-3792DC4DD0C7}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1215,12 +1215,12 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1301,12 +1301,12 @@
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
